--- a/AP10_TestData_ManageSuppliers_21C.xlsx
+++ b/AP10_TestData_ManageSuppliers_21C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud Test Automation\GNB\Scripts\Account Payables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F156D3-5C5E-4011-A875-DF986715C32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46CE549-5B16-4910-BFE9-DC426D7170BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="3444" windowWidth="17280" windowHeight="8916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input_Value" sheetId="3" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>UserName</t>
   </si>
@@ -260,15 +260,6 @@
   </si>
   <si>
     <t>URL</t>
-  </si>
-  <si>
-    <t>https://edrx.login.us2.oraclecloud.com</t>
-  </si>
-  <si>
-    <t>IBM_IMPLEMENTATION_USER</t>
-  </si>
-  <si>
-    <t>Oracle1234</t>
   </si>
   <si>
     <t>Company</t>
@@ -1032,110 +1023,110 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" workbookViewId="0">
+      <selection activeCell="BE2" sqref="BC2:BE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6328125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="21.36328125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.81640625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="13.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="4.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="6.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.77734375" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="10.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="4.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="25" max="25" width="13" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="14.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.90625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="11.88671875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="7.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.6328125" customWidth="1"/>
-    <col min="32" max="32" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="15.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="6.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="13.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="14.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="7.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="7.6640625" customWidth="1"/>
+    <col min="32" max="32" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="15.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="13.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="14.21875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="9.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="12.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="9.453125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="8.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="42" max="43" width="9.36328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="9.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="11.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="12.7265625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="17.08984375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="48" max="48" width="15.08984375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="9.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="12.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="8.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="42" max="43" width="9.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="9.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="11.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="12.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="17.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="48" max="48" width="15.109375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="49" max="49" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="50" max="50" width="17.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="51" max="51" width="15.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="52" max="52" width="16.54296875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="53" max="53" width="12.90625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="54" max="54" width="12.81640625" customWidth="1" collapsed="1"/>
-    <col min="55" max="55" width="33.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="56" max="56" width="26.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="57" max="57" width="10.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="58" max="60" width="12.81640625" customWidth="1" collapsed="1"/>
+    <col min="50" max="50" width="17.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="51" max="51" width="15.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="52" max="52" width="16.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="53" max="53" width="12.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="54" max="54" width="12.77734375" customWidth="1" collapsed="1"/>
+    <col min="55" max="55" width="33.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="56" max="56" width="26.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="57" max="57" width="10.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="58" max="60" width="12.77734375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:60" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="H1" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>78</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>6</v>
@@ -1147,10 +1138,10 @@
         <v>8</v>
       </c>
       <c r="S1" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="T1" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="U1" s="5" t="s">
         <v>9</v>
@@ -1183,7 +1174,7 @@
         <v>20</v>
       </c>
       <c r="AE1" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>21</v>
@@ -1231,25 +1222,25 @@
         <v>37</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="AV1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2" t="s">
@@ -1265,7 +1256,7 @@
       <c r="BG1" s="2"/>
       <c r="BH1" s="2"/>
     </row>
-    <row r="2" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:60" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>3</v>
       </c>
@@ -1291,39 +1282,39 @@
         <v>120</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K2" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="N2" s="9" t="s">
         <v>5</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
       <c r="S2" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
@@ -1332,22 +1323,22 @@
         <v>15</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>17</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AD2" s="9">
         <v>79042</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF2" s="9"/>
       <c r="AG2" s="9"/>
@@ -1363,10 +1354,10 @@
         <v>32</v>
       </c>
       <c r="AQ2" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AR2" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="AS2" s="9" t="s">
         <v>36</v>
@@ -1384,32 +1375,24 @@
         <v>43949</v>
       </c>
       <c r="AX2" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="AZ2" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BA2" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="BB2" s="9"/>
-      <c r="BC2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="BE2" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="BC2" s="12"/>
       <c r="BF2" s="9"/>
       <c r="BG2" s="9"/>
       <c r="BH2" s="9"/>
     </row>
-    <row r="3" spans="1:60" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:60" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="AX3" s="3"/>
       <c r="AY3" s="3"/>
       <c r="AZ3" s="3"/>
@@ -1418,12 +1401,11 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="AT2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BC2" r:id="rId2" display="https://edrx.login.us2.oraclecloud.com/" xr:uid="{B3B2D898-4941-490C-9330-9D3A076CC9A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1433,12 +1415,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
